--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s1_P4_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s1_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>398.5208472839716</v>
+        <v>841.5686820744935</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.86084728397254</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.196558216847439</v>
+        <v>5.206834251576654</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.196558216847439</v>
+        <v>4.957912867326331</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>254.3199999999991</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.34</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,56 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -634,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -747,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -758,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -769,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -791,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -813,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -863,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.75054662682655</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>23.76072200618813</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31.60181147454999</v>
+        <v>22.15891053163818</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>42.28226196994633</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>30.92507822290428</v>
       </c>
     </row>
     <row r="8">
@@ -903,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38.43623761108917</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -911,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42.58460255878718</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,15 +1001,141 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1068,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>202.86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>203.34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1090,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>217.055</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1101,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>207.51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1112,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>199.0450000000008</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1123,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>136.0600000000001</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
@@ -1134,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9450000000001</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -1145,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>131.3150000000001</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -1156,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>141.15</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -1167,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>142.69</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
@@ -1178,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>221.13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -1189,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>219.485</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>206.225</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -1211,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>224.12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
@@ -1222,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>225.435</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>75.89000000000051</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23">
@@ -1244,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.69000000000051</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24">
@@ -1255,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.2</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25">
@@ -1266,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>80.25500000000051</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26">
@@ -1277,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>75.56500000000051</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
@@ -1288,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01500000000037</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28">
@@ -1299,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>85.72000000000037</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29">
@@ -1310,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>84.66500000000036</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30">
@@ -1321,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>89.62500000000037</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31">
@@ -1332,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>93.42500000000037</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32">
@@ -1343,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>202.86</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
@@ -1354,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>203.34</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34">
@@ -1365,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>217.055</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35">
@@ -1376,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>207.51</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36">
@@ -1387,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>199.0450000000008</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37">
@@ -1398,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>221.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1409,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>219.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1420,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>206.225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1431,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>224.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1442,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>225.435</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.860000000000014</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1500,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.339999999999549</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1511,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>17.05500000000001</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -1522,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>7.509999999999991</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1533,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -1544,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>21.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1555,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1566,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>6.225000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1577,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>24.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1588,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>25.435</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1635,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1646,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1657,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1668,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1679,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1690,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1701,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1712,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1723,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1734,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1745,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1756,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1767,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1778,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1789,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1866,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1877,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1888,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1899,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1940,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1951,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1962,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1973,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -1984,10 +2154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1995,10 +2165,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2006,10 +2176,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2017,10 +2187,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2028,12 +2198,23 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
